--- a/Castlevania/Datasheet.xlsx
+++ b/Castlevania/Datasheet.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Code\Castlevania\Castlevania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EC8655-DFA9-4066-BF83-325B192A1C34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B001C706-3E9E-49BC-9CD5-1580D8E18CEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0024E313-98BA-4BEA-829D-B6D0A63EEC26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0024E313-98BA-4BEA-829D-B6D0A63EEC26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Scene1" sheetId="7" r:id="rId2"/>
-    <sheet name="Simon" sheetId="2" r:id="rId3"/>
-    <sheet name="Ground" sheetId="4" r:id="rId4"/>
-    <sheet name="Zombie" sheetId="3" r:id="rId5"/>
-    <sheet name="Candle" sheetId="5" r:id="rId6"/>
-    <sheet name="Bat" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Scene1" sheetId="7" r:id="rId3"/>
+    <sheet name="Simon" sheetId="2" r:id="rId4"/>
+    <sheet name="Ground" sheetId="4" r:id="rId5"/>
+    <sheet name="Zombie" sheetId="3" r:id="rId6"/>
+    <sheet name="Candle" sheetId="5" r:id="rId7"/>
+    <sheet name="Bat" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -390,10 +391,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,10 +723,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -741,10 +742,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -764,11 +765,698 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BE332E-210F-47FF-90B4-5D71B7D7A04A}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="A1:D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>400</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>192</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>224</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>288</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>320</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>352</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>384</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>416</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>448</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>480</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>512</v>
+      </c>
+      <c r="C17">
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>544</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>576</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>608</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>640</v>
+      </c>
+      <c r="C21">
+        <v>400</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>672</v>
+      </c>
+      <c r="C22">
+        <v>400</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>704</v>
+      </c>
+      <c r="C23">
+        <v>400</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>736</v>
+      </c>
+      <c r="C24">
+        <v>400</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>768</v>
+      </c>
+      <c r="C25">
+        <v>400</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>800</v>
+      </c>
+      <c r="C26">
+        <v>400</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>832</v>
+      </c>
+      <c r="C27">
+        <v>400</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>864</v>
+      </c>
+      <c r="C28">
+        <v>400</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>896</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>928</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>960</v>
+      </c>
+      <c r="C31">
+        <v>400</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>992</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1024</v>
+      </c>
+      <c r="C33">
+        <v>400</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1056</v>
+      </c>
+      <c r="C34">
+        <v>400</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1088</v>
+      </c>
+      <c r="C35">
+        <v>400</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1120</v>
+      </c>
+      <c r="C36">
+        <v>400</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1152</v>
+      </c>
+      <c r="C37">
+        <v>400</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1184</v>
+      </c>
+      <c r="C38">
+        <v>400</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1216</v>
+      </c>
+      <c r="C39">
+        <v>400</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>1248</v>
+      </c>
+      <c r="C40">
+        <v>400</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1280</v>
+      </c>
+      <c r="C41">
+        <v>400</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>1312</v>
+      </c>
+      <c r="C42">
+        <v>400</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1344</v>
+      </c>
+      <c r="C43">
+        <v>400</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>1376</v>
+      </c>
+      <c r="C44">
+        <v>400</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1408</v>
+      </c>
+      <c r="C45">
+        <v>400</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1440</v>
+      </c>
+      <c r="C46">
+        <v>400</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>1472</v>
+      </c>
+      <c r="C47">
+        <v>400</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>1504</v>
+      </c>
+      <c r="C48">
+        <v>400</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653E1A18-9A83-4B96-81FD-5F200495F2BE}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB431996-BA61-4C34-A72F-B983E7C07C65}">
   <dimension ref="A1:Y111"/>
   <sheetViews>
@@ -1269,13 +1957,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1315,14 +2003,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1335,7 +2023,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>10001</v>
       </c>
       <c r="B9">
@@ -2478,7 +3166,7 @@
       <c r="A85" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>10001</v>
       </c>
       <c r="C85">
@@ -3009,11 +3697,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEA9529-74C0-41A3-8888-79B45AC5CE42}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -3210,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D08AC0-1A28-4B82-8F26-3C67AA10B75A}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -3402,7 +4090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE5EB42-1C5D-44CD-8B94-8B6C508B8959}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -3654,7 +4342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05E019-508A-4706-A198-7DF9CBCD42D3}">
   <dimension ref="A1:I19"/>
   <sheetViews>
